--- a/Running projects/Engro 3rd & 8th Floor/VO/Summary of VOs.xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/VO/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B80C5-190C-496C-8B3E-20009DDEF53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A7F82-1CA5-4DED-8CF8-7F9C4BCC738F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,14 +15,14 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Sr #</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Variation order of dismantling M.S Pipes &amp; other material</t>
+  </si>
+  <si>
+    <t>Variation order for Ductign Hall Area</t>
   </si>
 </sst>
 </file>
@@ -378,13 +381,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>542175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -439,11 +442,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -461,11 +461,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Variation 2"/>
     </sheetNames>
@@ -483,9 +480,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -523,9 +520,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,9 +555,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,9 +607,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -769,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:E23"/>
+  <dimension ref="A7:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -786,7 +817,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f ca="1">TODAY()</f>
-        <v>45649</v>
+        <v>45715</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25" x14ac:dyDescent="0.3">
@@ -851,34 +882,45 @@
         <v>693590.44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21" t="s">
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19">
+        <v>27888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="22">
-        <f>SUM(C16:C18)</f>
-        <v>931801.81499999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="10"/>
+      <c r="C20" s="22">
+        <f>SUM(C16:C19)</f>
+        <v>959689.81499999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
